--- a/Project 2/lake-superior.xlsx
+++ b/Project 2/lake-superior.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamas\Documents\GitHub\Udactity_Data_foundations_nanodegree\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BD7BE54-1C37-445B-81BE-5C64BA5E3989}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9A7E31-D16A-49D9-B224-B4AA562A26EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,6 +264,1624 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40365966754155724"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lake Superior'!$B$1:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Lake Superior'!$A$6:$A$77</c:f>
+              <c:strCache>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>ice season</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1955-1956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1956-1957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1957-1958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1958-1959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1959-1960</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1960-1961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1961-1962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1962-1963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1963-1964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1964-1965</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1965-1966</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1966-1967</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1967-1968</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1968-1969</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1969-1970</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1970-1971</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1971-1972</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1972-1973</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1973-1974</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1974-1975</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1975-1976</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1976-1977</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1977-1978</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1978-1979</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1979-1980</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1980-1981</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1981-1982</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1982-1983</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1983-1984</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1984-1985</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1985-1986</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1986-1987</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1987-1988</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1988-1989</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1989-1990</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1990-1991</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1991-1992</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1992-1993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1993-1994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1994-1995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1995-1996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1996-1997</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lake Superior'!$B$6:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.937999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.017999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.678000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.958000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.797999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.978000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.097999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.297999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.738</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.157999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.937999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.398</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.138000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.657999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.725999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.488</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.167999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.728000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.408000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.408000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.948</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.948</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.708000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.808</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23.107999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.327999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.828000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.107999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.468</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.968</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.748000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23.612000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.084000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.244000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26.634000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23.878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6AC7-470B-BFD4-DCF972FA2C4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lake Superior'!$C$1:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Lake Superior'!$A$6:$A$77</c:f>
+              <c:strCache>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>ice season</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1955-1956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1956-1957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1957-1958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1958-1959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1959-1960</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1960-1961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1961-1962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1962-1963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1963-1964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1964-1965</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1965-1966</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1966-1967</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1967-1968</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1968-1969</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1969-1970</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1970-1971</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1971-1972</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1972-1973</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1973-1974</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1974-1975</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1975-1976</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1976-1977</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1977-1978</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1978-1979</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1979-1980</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1980-1981</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1981-1982</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1982-1983</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1983-1984</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1984-1985</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1985-1986</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1986-1987</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1987-1988</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1988-1989</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1989-1990</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1990-1991</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1991-1992</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1992-1993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1993-1994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1994-1995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1995-1996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1996-1997</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lake Superior'!$C$6:$C$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6AC7-470B-BFD4-DCF972FA2C4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1362720703"/>
+        <c:axId val="1362432671"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1362720703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362432671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1362432671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362720703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4106BD1F-2943-4B98-B350-87951CA39F16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -602,30 +2220,22 @@
     <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -635,8 +2245,11 @@
       <c r="C6" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -647,8 +2260,11 @@
         <v>87</v>
       </c>
       <c r="D7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -659,8 +2275,11 @@
         <v>137</v>
       </c>
       <c r="D8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
@@ -671,8 +2290,11 @@
         <v>106</v>
       </c>
       <c r="D9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -684,7 +2306,7 @@
       </c>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -696,7 +2318,7 @@
       </c>
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
@@ -708,7 +2330,7 @@
       </c>
       <c r="D12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -720,7 +2342,7 @@
       </c>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -732,7 +2354,7 @@
       </c>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -744,7 +2366,7 @@
       </c>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -1242,5 +2864,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>